--- a/Data Files/Calculate Duty/TypeCode 6/Action Type 1/Auto_GeStamp_TSCD_TC6_AT1_C7.xlsx
+++ b/Data Files/Calculate Duty/TypeCode 6/Action Type 1/Auto_GeStamp_TSCD_TC6_AT1_C7.xlsx
@@ -184,7 +184,7 @@
     <t xml:space="preserve">formType</t>
   </si>
   <si>
-    <t xml:space="preserve">2023-08-16</t>
+    <t xml:space="preserve">2023-09-01</t>
   </si>
   <si>
     <t xml:space="preserve">1</t>

--- a/Data Files/Calculate Duty/TypeCode 6/Action Type 1/Auto_GeStamp_TSCD_TC6_AT1_C7.xlsx
+++ b/Data Files/Calculate Duty/TypeCode 6/Action Type 1/Auto_GeStamp_TSCD_TC6_AT1_C7.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88D210FF-52A5-4893-B768-E8BA5B3641FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AD28C9E-A9E8-4289-A93C-056C5D24C709}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -276,7 +276,7 @@
     <t>AS9</t>
   </si>
   <si>
-    <t>2023-09-16</t>
+    <t>2023-10-01</t>
   </si>
 </sst>
 </file>

--- a/Data Files/Calculate Duty/TypeCode 6/Action Type 1/Auto_GeStamp_TSCD_TC6_AT1_C7.xlsx
+++ b/Data Files/Calculate Duty/TypeCode 6/Action Type 1/Auto_GeStamp_TSCD_TC6_AT1_C7.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AD28C9E-A9E8-4289-A93C-056C5D24C709}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42B5AC3C-5CD1-49B6-AC57-85CAA7921835}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2304" yWindow="2304" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -276,7 +276,7 @@
     <t>AS9</t>
   </si>
   <si>
-    <t>2023-10-01</t>
+    <t>2023-10-16</t>
   </si>
 </sst>
 </file>

--- a/Data Files/Calculate Duty/TypeCode 6/Action Type 1/Auto_GeStamp_TSCD_TC6_AT1_C7.xlsx
+++ b/Data Files/Calculate Duty/TypeCode 6/Action Type 1/Auto_GeStamp_TSCD_TC6_AT1_C7.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42B5AC3C-5CD1-49B6-AC57-85CAA7921835}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5380A5B6-6E16-4D11-9206-68D91F32C90C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2304" yWindow="2304" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2688" yWindow="2376" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="85">
   <si>
     <t>creationDate</t>
   </si>
@@ -277,6 +277,9 @@
   </si>
   <si>
     <t>2023-10-16</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
@@ -643,7 +646,7 @@
   <dimension ref="A1:BL2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="AX2" sqref="AX2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -990,7 +993,7 @@
       <c r="AV2" s="2"/>
       <c r="AW2" s="2"/>
       <c r="AX2" s="3" t="s">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="AY2" s="2" t="s">
         <v>62</v>

--- a/Data Files/Calculate Duty/TypeCode 6/Action Type 1/Auto_GeStamp_TSCD_TC6_AT1_C7.xlsx
+++ b/Data Files/Calculate Duty/TypeCode 6/Action Type 1/Auto_GeStamp_TSCD_TC6_AT1_C7.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5380A5B6-6E16-4D11-9206-68D91F32C90C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B04CA19-640E-4E8F-B616-81417C642628}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2688" yWindow="2376" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1116" yWindow="1116" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" calcMode="manual"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -276,10 +276,10 @@
     <t>AS9</t>
   </si>
   <si>
-    <t>2023-10-16</t>
-  </si>
-  <si>
     <t/>
+  </si>
+  <si>
+    <t>2023-11-01</t>
   </si>
 </sst>
 </file>
@@ -646,7 +646,7 @@
   <dimension ref="A1:BL2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AX2" sqref="AX2"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -873,7 +873,7 @@
     </row>
     <row r="2" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>54</v>
@@ -993,7 +993,7 @@
       <c r="AV2" s="2"/>
       <c r="AW2" s="2"/>
       <c r="AX2" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AY2" s="2" t="s">
         <v>62</v>

--- a/Data Files/Calculate Duty/TypeCode 6/Action Type 1/Auto_GeStamp_TSCD_TC6_AT1_C7.xlsx
+++ b/Data Files/Calculate Duty/TypeCode 6/Action Type 1/Auto_GeStamp_TSCD_TC6_AT1_C7.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\Chang Date\file\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B04CA19-640E-4E8F-B616-81417C642628}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9093635C-E6BD-4444-AA1F-8CD1A8648924}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1116" yWindow="1116" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1125" yWindow="1125" windowWidth="10725" windowHeight="11865" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -279,7 +279,7 @@
     <t/>
   </si>
   <si>
-    <t>2023-11-01</t>
+    <t>2023-11-16</t>
   </si>
 </sst>
 </file>
@@ -649,60 +649,59 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="2.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" style="1" customWidth="1"/>
     <col min="2" max="3" width="10" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.44140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" style="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.88671875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="8.6640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="12.88671875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" style="1" customWidth="1"/>
     <col min="9" max="9" width="12" style="1" customWidth="1"/>
-    <col min="10" max="10" width="10.33203125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="10.88671875" style="1" customWidth="1"/>
-    <col min="12" max="12" width="13.21875" style="1" customWidth="1"/>
-    <col min="13" max="13" width="7.5546875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="10.28515625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="10.85546875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="13.28515625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="7.5703125" style="1" customWidth="1"/>
     <col min="14" max="14" width="11" style="1" customWidth="1"/>
-    <col min="15" max="15" width="10.44140625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="14.109375" style="1" customWidth="1"/>
-    <col min="17" max="17" width="8.77734375" style="1" customWidth="1"/>
-    <col min="18" max="18" width="18.6640625" style="1" customWidth="1"/>
-    <col min="19" max="19" width="19.109375" style="1" customWidth="1"/>
-    <col min="20" max="20" width="14.44140625" style="1" customWidth="1"/>
-    <col min="21" max="21" width="20.6640625" style="1" customWidth="1"/>
-    <col min="22" max="22" width="20.44140625" style="1" customWidth="1"/>
-    <col min="23" max="23" width="20.109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="10.42578125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="14.140625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="8.7109375" style="1" customWidth="1"/>
+    <col min="18" max="18" width="18.7109375" style="1" customWidth="1"/>
+    <col min="19" max="19" width="19.140625" style="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" customWidth="1"/>
+    <col min="21" max="21" width="20.7109375" style="1" customWidth="1"/>
+    <col min="22" max="22" width="20.42578125" style="1" customWidth="1"/>
+    <col min="23" max="23" width="20.140625" style="1" customWidth="1"/>
     <col min="24" max="24" width="22" style="1" customWidth="1"/>
-    <col min="25" max="25" width="12.109375" style="1" customWidth="1"/>
-    <col min="26" max="26" width="7.44140625" style="1" customWidth="1"/>
-    <col min="27" max="27" width="6.88671875" style="1" customWidth="1"/>
-    <col min="28" max="28" width="11.44140625" style="1" customWidth="1"/>
-    <col min="29" max="29" width="13.88671875" style="1" customWidth="1"/>
-    <col min="30" max="30" width="4.5546875" style="1" customWidth="1"/>
-    <col min="31" max="31" width="8.109375" style="1" customWidth="1"/>
-    <col min="32" max="32" width="12.33203125" style="1" customWidth="1"/>
-    <col min="33" max="33" width="10.6640625" style="1" customWidth="1"/>
-    <col min="34" max="34" width="13.44140625" style="1" customWidth="1"/>
-    <col min="35" max="35" width="14.109375" style="1" customWidth="1"/>
-    <col min="36" max="36" width="11.6640625" style="1" customWidth="1"/>
-    <col min="37" max="37" width="8.6640625" style="1" customWidth="1"/>
-    <col min="38" max="38" width="8.77734375" style="1" customWidth="1"/>
+    <col min="25" max="25" width="12.140625" style="1" customWidth="1"/>
+    <col min="26" max="26" width="7.42578125" style="1" customWidth="1"/>
+    <col min="27" max="27" width="6.85546875" style="1" customWidth="1"/>
+    <col min="28" max="28" width="11.42578125" style="1" customWidth="1"/>
+    <col min="29" max="29" width="13.85546875" style="1" customWidth="1"/>
+    <col min="30" max="30" width="4.5703125" style="1" customWidth="1"/>
+    <col min="31" max="31" width="8.140625" style="1" customWidth="1"/>
+    <col min="32" max="32" width="12.28515625" style="1" customWidth="1"/>
+    <col min="33" max="33" width="10.7109375" style="1" customWidth="1"/>
+    <col min="34" max="34" width="13.42578125" style="1" customWidth="1"/>
+    <col min="35" max="35" width="14.140625" style="1" customWidth="1"/>
+    <col min="36" max="36" width="11.7109375" style="1" customWidth="1"/>
+    <col min="37" max="38" width="8.7109375" style="1" customWidth="1"/>
     <col min="39" max="45" width="9" style="1" customWidth="1"/>
-    <col min="46" max="46" width="10.109375" style="1" customWidth="1"/>
+    <col min="46" max="46" width="10.140625" style="1" customWidth="1"/>
     <col min="47" max="47" width="10" style="1" customWidth="1"/>
-    <col min="48" max="48" width="12.77734375" style="1" customWidth="1"/>
-    <col min="49" max="49" width="14.44140625" style="1" customWidth="1"/>
-    <col min="50" max="50" width="11.6640625" style="1" customWidth="1"/>
-    <col min="51" max="51" width="17.21875" style="1" customWidth="1"/>
-    <col min="52" max="52" width="18.44140625" style="1" customWidth="1"/>
-    <col min="53" max="53" width="10.21875" style="1" customWidth="1"/>
-    <col min="54" max="54" width="8.77734375" style="1" customWidth="1"/>
-    <col min="55" max="59" width="2.6640625" style="1"/>
-    <col min="65" max="16384" width="2.6640625" style="1"/>
+    <col min="48" max="48" width="12.7109375" style="1" customWidth="1"/>
+    <col min="49" max="49" width="14.42578125" style="1" customWidth="1"/>
+    <col min="50" max="50" width="11.7109375" style="1" customWidth="1"/>
+    <col min="51" max="51" width="17.28515625" style="1" customWidth="1"/>
+    <col min="52" max="52" width="18.42578125" style="1" customWidth="1"/>
+    <col min="53" max="53" width="10.28515625" style="1" customWidth="1"/>
+    <col min="54" max="54" width="8.7109375" style="1" customWidth="1"/>
+    <col min="55" max="59" width="2.7109375" style="1"/>
+    <col min="65" max="16384" width="2.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -871,7 +870,7 @@
       <c r="BF1" s="2"/>
       <c r="BG1" s="2"/>
     </row>
-    <row r="2" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>84</v>
       </c>

--- a/Data Files/Calculate Duty/TypeCode 6/Action Type 1/Auto_GeStamp_TSCD_TC6_AT1_C7.xlsx
+++ b/Data Files/Calculate Duty/TypeCode 6/Action Type 1/Auto_GeStamp_TSCD_TC6_AT1_C7.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9093635C-E6BD-4444-AA1F-8CD1A8648924}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D61B069A-7671-466B-A156-D13732C0B1F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1125" yWindow="1125" windowWidth="10725" windowHeight="11865" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6210" yWindow="2415" windowWidth="9690" windowHeight="12675" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -279,7 +279,7 @@
     <t/>
   </si>
   <si>
-    <t>2023-11-16</t>
+    <t>2024-01-02</t>
   </si>
 </sst>
 </file>

--- a/Data Files/Calculate Duty/TypeCode 6/Action Type 1/Auto_GeStamp_TSCD_TC6_AT1_C7.xlsx
+++ b/Data Files/Calculate Duty/TypeCode 6/Action Type 1/Auto_GeStamp_TSCD_TC6_AT1_C7.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D61B069A-7671-466B-A156-D13732C0B1F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9E757D6-207A-4A83-9596-67BA8F86AC05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6210" yWindow="2415" windowWidth="9690" windowHeight="12675" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -279,7 +279,7 @@
     <t/>
   </si>
   <si>
-    <t>2024-01-02</t>
+    <t>2024-01-16</t>
   </si>
 </sst>
 </file>
@@ -346,9 +346,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -386,7 +386,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -492,7 +492,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -634,7 +634,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>

--- a/Data Files/Calculate Duty/TypeCode 6/Action Type 1/Auto_GeStamp_TSCD_TC6_AT1_C7.xlsx
+++ b/Data Files/Calculate Duty/TypeCode 6/Action Type 1/Auto_GeStamp_TSCD_TC6_AT1_C7.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF7C7422-3A22-40D5-A6E8-A52013B98A59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0342306A-6500-4B84-8597-AD1B828CC825}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10545" yWindow="2985" windowWidth="12915" windowHeight="12615" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -279,7 +279,7 @@
     <t/>
   </si>
   <si>
-    <t>2024-02-16</t>
+    <t>2024-04-16</t>
   </si>
 </sst>
 </file>
@@ -346,9 +346,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -386,7 +386,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -492,7 +492,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -634,7 +634,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>

--- a/Data Files/Calculate Duty/TypeCode 6/Action Type 1/Auto_GeStamp_TSCD_TC6_AT1_C7.xlsx
+++ b/Data Files/Calculate Duty/TypeCode 6/Action Type 1/Auto_GeStamp_TSCD_TC6_AT1_C7.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0342306A-6500-4B84-8597-AD1B828CC825}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAF04297-64DD-4CCA-88C7-B077462C982A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10545" yWindow="2985" windowWidth="12915" windowHeight="12615" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8850" yWindow="2685" windowWidth="12915" windowHeight="12660" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -279,7 +279,7 @@
     <t/>
   </si>
   <si>
-    <t>2024-04-16</t>
+    <t>2024-07-01</t>
   </si>
 </sst>
 </file>

--- a/Data Files/Calculate Duty/TypeCode 6/Action Type 1/Auto_GeStamp_TSCD_TC6_AT1_C7.xlsx
+++ b/Data Files/Calculate Duty/TypeCode 6/Action Type 1/Auto_GeStamp_TSCD_TC6_AT1_C7.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAF04297-64DD-4CCA-88C7-B077462C982A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A2355DA-F18C-4F85-8262-41873678AFE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8850" yWindow="2685" windowWidth="12915" windowHeight="12660" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="7305" windowHeight="13260" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -279,7 +279,7 @@
     <t/>
   </si>
   <si>
-    <t>2024-07-01</t>
+    <t>2024-08-16</t>
   </si>
 </sst>
 </file>
@@ -646,7 +646,7 @@
   <dimension ref="A1:BL2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
